--- a/Extensive/CoffeeResult.xlsx
+++ b/Extensive/CoffeeResult.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>Entity</t>
   </si>
@@ -71,96 +71,87 @@
     <t>Hot</t>
   </si>
   <si>
+    <t>Alright, how does a vanilla latte sound?</t>
+  </si>
+  <si>
+    <t>Over ice</t>
+  </si>
+  <si>
+    <t>Sorry, I didn't understand that. You can say things like "get me coffee" or "Play some music."</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>You are welcome. Let me know if you need anything else!</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Sure</t>
+  </si>
+  <si>
+    <t>complete coffee order</t>
+  </si>
+  <si>
+    <t>Muffins sounds good</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>suggest please</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>Okay, canceling your order.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'action_type': u'cancel'}]</t>
+  </si>
+  <si>
+    <t>with would be nice</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
     <t>Alright! Would you like it to over ice or blended?</t>
   </si>
   <si>
-    <t>Over ice</t>
-  </si>
-  <si>
-    <t>Alright, how does a Iced Caramel Macchiato sound?</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Okay, what size?</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Alright! Would you like to pair your large Caramel frappuccino with a bakery item?</t>
-  </si>
-  <si>
-    <t>Sure</t>
-  </si>
-  <si>
-    <t>Cool! What can I get you from the bakery? Blueberry muffins are my favorite.</t>
-  </si>
-  <si>
-    <t>complete coffee order</t>
-  </si>
-  <si>
-    <t>Muffins sounds good</t>
-  </si>
-  <si>
-    <t>Awesome, now placing your order for. It will be delivered to your home.</t>
-  </si>
-  <si>
-    <t>[{u'category': u'drink', u'text': u'Awesome, now placing your order for. It will be delivered to your home.', u'order': [], u'action_type': u'complete coffee order'}]</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>You are welcome. Let me know if you need anything else!</t>
-  </si>
-  <si>
-    <t>suggest please</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
-    <t>nope</t>
-  </si>
-  <si>
-    <t>Okay, canceling your order.</t>
-  </si>
-  <si>
-    <t>[{u'category': u'coffee', u'action_type': u'cancel'}]</t>
-  </si>
-  <si>
-    <t>with would be nice</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
     <t>blended</t>
   </si>
   <si>
-    <t>Alright, how does a Caramel Frappuccino sound?</t>
+    <t>Alright, how does a caramel frappe sound?</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>Okay placing your order for caramel frappe.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'order_in_progress': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'grande', u'coffee flavor': [], u'coffee extras': [u'blended'], u'coffee name': u'frappe'}], u'action_type': u'complete coffee order'}]</t>
+  </si>
+  <si>
+    <t>Action type mismatch</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>Alright! Would you like to pair your small Caramel frappuccino with a bakery item?</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>cinnamon roll"</t>
   </si>
   <si>
-    <t>Alright, I added a cinnamon roll to your order. Would you like to confirm your order?</t>
-  </si>
-  <si>
     <t>confirm</t>
   </si>
   <si>
@@ -170,21 +161,18 @@
     <t>bad</t>
   </si>
   <si>
+    <t>Alright! Let me know if you need anything else.</t>
+  </si>
+  <si>
     <t>without</t>
   </si>
   <si>
-    <t>Alright, how does a London fog latte sound?</t>
-  </si>
-  <si>
     <t xml:space="preserve">good </t>
   </si>
   <si>
     <t>medium will be nice</t>
   </si>
   <si>
-    <t>Alright! Would you like to pair your medium London fog latte with a bakery item?</t>
-  </si>
-  <si>
     <t>yes, cake please</t>
   </si>
   <si>
@@ -203,19 +191,19 @@
     <t>[{u'category': u'coffee', u'completed_orders': [], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
   </si>
   <si>
-    <t>Action type mismatch</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>Okay, no problem! Would you like to confirm your order?</t>
   </si>
   <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
     <t>Alright what else would you like to add to your coffee order?</t>
   </si>
   <si>
-    <t>[{u'category': u'coffee', u'completed_orders': [], u'order_in_progress': {u'coffee extras': [], u'bakery item': u'', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u'', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
   </si>
   <si>
     <t>I understand your trying to order a beverage but that item is not available in the menu. Is there another drink you would like?</t>
@@ -227,6 +215,12 @@
     <t>Sounds good! I added sugar to your drink. Would you like to confirm your order?</t>
   </si>
   <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u'', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
@@ -236,7 +230,7 @@
     <t>Sounds good! I added cream to your drink. Would you like to confirm your order?</t>
   </si>
   <si>
-    <t>[{u'category': u'coffee', u'completed_orders': [], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
   </si>
   <si>
     <t>yes, I would like something from the bakery</t>
@@ -245,7 +239,10 @@
     <t>Sorry, I didn't understand. Would you like to confirm your order?</t>
   </si>
   <si>
-    <t>[{u'category': u'coffee', u'completed_orders': [], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'cream'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'cream'], u'coffee name': u'macchiato'}], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'cream'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'cream'], u'coffee name': u'macchiato'}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u'', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
   </si>
   <si>
     <t>muffins</t>
@@ -254,13 +251,13 @@
     <t>Confirm your order for muffin?</t>
   </si>
   <si>
-    <t>[{u'category': u'coffee', u'completed_orders': [{u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
-  </si>
-  <si>
-    <t>Awesome, now placing your order for muffin. It will be delivered to your home.</t>
-  </si>
-  <si>
-    <t>[{u'category': u'drink', u'text': u'Awesome, now placing your order for muffin. It will be delivered to your home.', u'order': [{u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'action_type': u'complete coffee order'}]</t>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'cream'], u'coffee name': u'macchiato'}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'cream'], u'coffee name': u'macchiato'}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'cream'], u'coffee name': u'macchiato'}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
   </si>
   <si>
     <t>yes, please add modifier</t>
@@ -269,19 +266,25 @@
     <t>Alright! What would you like to add to your drink?</t>
   </si>
   <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'cream'], u'coffee name': u'macchiato'}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
     <t>milk</t>
   </si>
   <si>
     <t>Sounds good! I added whole milk to your drink. Would you like to confirm your order?</t>
   </si>
   <si>
-    <t>[{u'category': u'coffee', u'completed_orders': [], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'whole milk'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'cream'], u'coffee name': u'macchiato'}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'whole milk'], u'coffee name': u'macchiato'}], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'whole milk'], u'coffee name': u'macchiato'}, u'action_type': u'coffee order'}]</t>
   </si>
   <si>
     <t>sure, cookie</t>
   </si>
   <si>
-    <t>Alright! Let me know if you need anything else.</t>
+    <t>Awesome, now placing your order for large hazelnut macchiato with no whip and sugar, large hazelnut macchiato with no whip and sugar, large hazelnut macchiato with no whip and sugar and cream, large hazelnut macchiato with cream, muffin, muffin, large hazelnut macchiato with no whip and sugar, large hazelnut macchiato with no whip and sugar, and a large hazelnut macchiato with no whip and sugar and whole milk. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'text': u'Awesome, now placing your order for large hazelnut macchiato with no whip and sugar, large hazelnut macchiato with no whip and sugar, large hazelnut macchiato with no whip and sugar and cream, large hazelnut macchiato with cream, muffin, muffin, large hazelnut macchiato with no whip and sugar, large hazelnut macchiato with no whip and sugar, and a large hazelnut macchiato with no whip and sugar and whole milk. It will be delivered to your home.', u'order': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'cream'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'cream'], u'coffee name': u'macchiato'}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar'], u'coffee name': u'macchiato'}, {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'large', u'coffee flavor': [u'hazelnut'], u'coffee extras': [u'no whip', u'sugar', u'whole milk'], u'coffee name': u'macchiato'}], u'action_type': u'complete coffee order'}]</t>
   </si>
   <si>
     <t>soda</t>
@@ -359,18 +362,21 @@
     <t>sugar would be awesome actually</t>
   </si>
   <si>
-    <t>[{u'category': u'coffee', u'completed_orders': [], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'small', u'coffee flavor': [], u'coffee extras': [u'whole milk', u'sugar'], u'coffee name': u'mocha'}, u'action_type': u'coffee order'}]</t>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'small', u'coffee flavor': [], u'coffee extras': [u'whole milk', u'sugar'], u'coffee name': u'mocha'}], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'small', u'coffee flavor': [], u'coffee extras': [u'whole milk', u'sugar'], u'coffee name': u'mocha'}, u'action_type': u'coffee order'}]</t>
   </si>
   <si>
     <t>yes, confirm the order</t>
   </si>
   <si>
+    <t>Awesome, now placing your order for small mocha with whole milk and sugar. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'text': u'Awesome, now placing your order for small mocha with whole milk and sugar. It will be delivered to your home.', u'order': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'small', u'coffee flavor': [], u'coffee extras': [u'whole milk', u'sugar'], u'coffee name': u'mocha'}], u'action_type': u'complete coffee order'}]</t>
+  </si>
+  <si>
     <t>bananas</t>
   </si>
   <si>
-    <t>Sorry, I didn't understand that. You can say things like "get me coffee" or "Play some music."</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
@@ -404,6 +410,12 @@
     <t>No thanks</t>
   </si>
   <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'medium', u'coffee flavor': [], u'coffee extras': [], u'coffee name': u'dark roast coffee'}], u'order_in_progress': {u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'medium', u'coffee flavor': [], u'coffee extras': [], u'coffee name': u'dark roast coffee'}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'medium', u'coffee flavor': [], u'coffee extras': [], u'coffee name': u'dark roast coffee'}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u'', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
     <t>get coffee</t>
   </si>
   <si>
@@ -413,19 +425,19 @@
     <t>Confirm your order for bread?</t>
   </si>
   <si>
-    <t>[{u'category': u'coffee', u'completed_orders': [{u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
-  </si>
-  <si>
-    <t>Awesome, now placing your order for bread. It will be delivered to your home.</t>
-  </si>
-  <si>
-    <t>[{u'category': u'drink', u'text': u'Awesome, now placing your order for bread. It will be delivered to your home.', u'order': [{u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'action_type': u'complete coffee order'}]</t>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'medium', u'coffee flavor': [], u'coffee extras': [], u'coffee name': u'dark roast coffee'}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'medium', u'coffee flavor': [], u'coffee extras': [], u'coffee name': u'dark roast coffee'}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
   </si>
   <si>
     <t>large roast with muffin</t>
   </si>
   <si>
-    <t>[{u'category': u'coffee', u'completed_orders': [{u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u'', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'medium', u'coffee flavor': [], u'coffee extras': [], u'coffee name': u'dark roast coffee'}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'medium', u'coffee flavor': [], u'coffee extras': [], u'coffee name': u'dark roast coffee'}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
   </si>
   <si>
     <t>cinnamon rolls</t>
@@ -434,13 +446,10 @@
     <t>Confirm your order for cinnamon roll?</t>
   </si>
   <si>
-    <t>[{u'category': u'coffee', u'completed_orders': [{u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u'cinnamon roll', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u'cinnamon roll', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
-  </si>
-  <si>
-    <t>Awesome, now placing your order for muffin and cinnamon roll. It will be delivered to your home.</t>
-  </si>
-  <si>
-    <t>[{u'category': u'drink', u'text': u'Awesome, now placing your order for muffin and cinnamon roll. It will be delivered to your home.', u'order': [{u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u'cinnamon roll', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'action_type': u'complete coffee order'}]</t>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'medium', u'coffee flavor': [], u'coffee extras': [], u'coffee name': u'dark roast coffee'}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u'cinnamon roll', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u'cinnamon roll', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
+  </si>
+  <si>
+    <t>[{u'category': u'coffee', u'completed_orders': [{u'bakery item': u'', u'coffee quantity': 1, u'coffee size': u'medium', u'coffee flavor': [], u'coffee extras': [], u'coffee name': u'dark roast coffee'}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' bread', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u' muffin', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u'cinnamon roll', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, {u'coffee extras': [], u'bakery item': u'cinnamon roll', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}], u'order_in_progress': {u'coffee extras': [], u'bakery item': u'cinnamon roll', u'coffee size': u'', u'coffee flavor': [], u'coffee name': u''}, u'action_type': u'coffee order'}]</t>
   </si>
 </sst>
 </file>
@@ -943,7 +952,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -957,33 +966,30 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -994,10 +1000,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
@@ -1031,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
@@ -1045,19 +1051,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1088,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -1105,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
@@ -1122,10 +1128,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>8</v>
@@ -1139,10 +1145,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>8</v>
@@ -1156,13 +1162,19 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1173,13 +1185,19 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1190,13 +1208,19 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1207,13 +1231,19 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1221,19 +1251,19 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1264,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>14</v>
@@ -1281,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>16</v>
@@ -1298,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
@@ -1315,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -1332,10 +1362,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>8</v>
@@ -1349,10 +1379,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -1366,10 +1396,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>8</v>
@@ -1383,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>22</v>
@@ -1400,33 +1430,30 @@
         <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
+      <c r="A36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1437,10 +1464,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -1491,19 +1518,19 @@
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1514,19 +1541,19 @@
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1537,19 +1564,19 @@
         <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1557,22 +1584,22 @@
         <v>5</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1589,13 +1616,13 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1606,19 +1633,19 @@
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1629,19 +1656,19 @@
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1652,19 +1679,19 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1672,22 +1699,22 @@
         <v>5</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1704,13 +1731,13 @@
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1721,19 +1748,19 @@
         <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1744,19 +1771,19 @@
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1767,19 +1794,19 @@
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1790,19 +1817,19 @@
         <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1813,39 +1840,42 @@
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" t="s">
-        <v>81</v>
+      <c r="G55" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1876,19 +1906,19 @@
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1899,19 +1929,19 @@
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1928,13 +1958,13 @@
         <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1948,16 +1978,16 @@
         <v>87</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1968,10 +1998,10 @@
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>8</v>
@@ -1985,19 +2015,19 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2008,19 +2038,19 @@
         <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2034,16 +2064,16 @@
         <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2054,19 +2084,19 @@
         <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2077,19 +2107,19 @@
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2100,19 +2130,19 @@
         <v>5</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2123,19 +2153,19 @@
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2146,7 +2176,7 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
@@ -2166,19 +2196,19 @@
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2189,19 +2219,19 @@
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2212,19 +2242,19 @@
         <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2235,19 +2265,19 @@
         <v>5</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2258,10 +2288,10 @@
         <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
@@ -2275,10 +2305,10 @@
         <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -2289,13 +2319,13 @@
         <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -2349,16 +2379,16 @@
         <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2369,19 +2399,19 @@
         <v>5</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2392,19 +2422,19 @@
         <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2415,19 +2445,19 @@
         <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2438,19 +2468,19 @@
         <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2458,22 +2488,22 @@
         <v>5</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2484,19 +2514,19 @@
         <v>9</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2507,19 +2537,19 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2530,19 +2560,19 @@
         <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2553,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>11</v>
@@ -2565,7 +2595,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2576,19 +2606,19 @@
         <v>5</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2599,19 +2629,19 @@
         <v>5</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2622,39 +2652,42 @@
         <v>5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" t="s">
-        <v>140</v>
-      </c>
-      <c r="E92" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" t="s">
-        <v>141</v>
+      <c r="A92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
